--- a/Data files/Tracking_codes_Data.xlsx
+++ b/Data files/Tracking_codes_Data.xlsx
@@ -12,46 +12,80 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_01" sheetId="2" r:id="rId1"/>
+    <sheet name="Data_01" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_01 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>GTAG ID</t>
+  </si>
+  <si>
     <t>GA ID</t>
   </si>
   <si>
-    <t>GTAG ID</t>
-  </si>
-  <si>
     <t>BigInt ID</t>
   </si>
   <si>
+    <t>Gtag code verified</t>
+  </si>
+  <si>
+    <t>Gtag code expiry</t>
+  </si>
+  <si>
+    <t>GA code verified</t>
+  </si>
+  <si>
+    <t>GA code expiry</t>
+  </si>
+  <si>
+    <t>BigInt code verified</t>
+  </si>
+  <si>
+    <t>BigInt code expiry</t>
+  </si>
+  <si>
+    <t>https://lifesciences.cactusglobal.com/</t>
+  </si>
+  <si>
     <t>_ga_MNGCCS5STP</t>
   </si>
   <si>
-    <t>https://lifesciences.cactusglobal.com/</t>
-  </si>
-  <si>
     <t>_ga</t>
   </si>
   <si>
     <t>__ivc</t>
   </si>
   <si>
-    <t>Gtag code verfied</t>
-  </si>
-  <si>
-    <t>GA code verfied</t>
-  </si>
-  <si>
-    <t>BigInt code verfied</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2023-08-16 10:58:22 India Standard Time</t>
+  </si>
+  <si>
+    <t>2023-08-16 10:59:09 India Standard Time</t>
+  </si>
+  <si>
+    <t>https://www.impact.science/</t>
+  </si>
+  <si>
+    <t>_gat_gtag_UA_140842239_1</t>
+  </si>
+  <si>
+    <t>2021-08-16 10:59:38 India Standard Time</t>
+  </si>
+  <si>
+    <t>Google analytics script not fired</t>
+  </si>
+  <si>
+    <t>BigInt script not fired</t>
   </si>
 </sst>
 </file>
@@ -97,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,41 +154,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,119 +478,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1692163799</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Data files/Tracking_codes_Data.xlsx
+++ b/Data files/Tracking_codes_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -52,40 +52,37 @@
     <t>BigInt code expiry</t>
   </si>
   <si>
+    <t>https://www.impact.science/</t>
+  </si>
+  <si>
+    <t>_gat_gtag_UA_140842239_1</t>
+  </si>
+  <si>
+    <t>_ga</t>
+  </si>
+  <si>
+    <t>__ivc</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2021-08-16 21:21:01 India Standard Time</t>
+  </si>
+  <si>
+    <t>2023-08-16 21:20:01 India Standard Time</t>
+  </si>
+  <si>
     <t>https://lifesciences.cactusglobal.com/</t>
   </si>
   <si>
     <t>_ga_MNGCCS5STP</t>
   </si>
   <si>
-    <t>_ga</t>
-  </si>
-  <si>
-    <t>__ivc</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>2023-08-16 10:58:22 India Standard Time</t>
-  </si>
-  <si>
-    <t>2023-08-16 10:59:09 India Standard Time</t>
-  </si>
-  <si>
-    <t>https://www.impact.science/</t>
-  </si>
-  <si>
-    <t>_gat_gtag_UA_140842239_1</t>
-  </si>
-  <si>
-    <t>2021-08-16 10:59:38 India Standard Time</t>
-  </si>
-  <si>
-    <t>Google analytics script not fired</t>
-  </si>
-  <si>
-    <t>BigInt script not fired</t>
+    <t>2023-08-16 21:20:23 India Standard Time</t>
+  </si>
+  <si>
+    <t>2023-08-16 21:20:24 India Standard Time</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="5">
-        <v>1692163799</v>
+        <v>1692201002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -580,13 +577,17 @@
         <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1692201025</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -612,8 +613,8 @@
     <col min="6" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="20" width="9.140625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -650,10 +651,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -670,10 +671,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
